--- a/Tai lieu/Tổng hợp chỉnh sửa Ipro lần 1.xlsx
+++ b/Tai lieu/Tổng hợp chỉnh sửa Ipro lần 1.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9630" tabRatio="779" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9630" tabRatio="779" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Khác" sheetId="9" r:id="rId1"/>
     <sheet name="Tên miền" sheetId="11" r:id="rId2"/>
-    <sheet name="Background" sheetId="1" r:id="rId3"/>
+    <sheet name="Background" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="Trang Chủ" sheetId="2" r:id="rId4"/>
     <sheet name="Addmin" sheetId="10" r:id="rId5"/>
     <sheet name="Giới thiệu" sheetId="3" r:id="rId6"/>
@@ -186,7 +186,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -281,6 +287,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,7 +333,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -344,7 +353,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -384,7 +393,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -404,7 +413,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -444,7 +453,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -464,7 +473,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -903,7 +912,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1028,7 +1037,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1048,7 +1057,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1137,7 +1146,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1157,7 +1166,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1192,7 +1201,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1212,7 +1221,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1247,7 +1256,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1267,7 +1276,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1302,7 +1311,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1322,7 +1331,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1399,7 +1408,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1419,7 +1428,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1785,7 +1794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2047,7 +2056,7 @@
   <dimension ref="B3:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2060,7 +2069,7 @@
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2110,7 +2119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2194,7 +2203,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2238,7 +2247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:B58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>

--- a/Tai lieu/Tổng hợp chỉnh sửa Ipro lần 1.xlsx
+++ b/Tai lieu/Tổng hợp chỉnh sửa Ipro lần 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9630" tabRatio="779" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9630" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="Khác" sheetId="9" r:id="rId1"/>
@@ -239,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -290,6 +290,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,7 +345,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -353,7 +365,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -393,7 +405,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -413,7 +425,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -453,7 +465,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -473,7 +485,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -912,7 +924,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1037,7 +1049,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1057,7 +1069,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1146,7 +1158,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1166,7 +1178,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1201,7 +1213,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1221,7 +1233,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1256,7 +1268,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1276,7 +1288,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1311,7 +1323,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1331,7 +1343,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1408,7 +1420,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1428,7 +1440,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1794,7 +1806,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1804,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1843,7 +1855,7 @@
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1861,7 +1873,7 @@
   <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="B10" sqref="B10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1875,7 +1887,7 @@
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1888,19 +1900,22 @@
       <c r="D7"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="24" t="s">
         <v>28</v>
       </c>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="24" t="s">
         <v>29</v>
       </c>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="24" t="s">
         <v>30</v>
       </c>
+      <c r="C12" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1913,7 +1928,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1927,7 +1942,7 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="27" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1936,7 +1951,7 @@
       <c r="C3" s="9"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2004,7 +2019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2020,7 +2035,7 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2119,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2143,7 +2158,7 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2"/>
@@ -2152,12 +2167,12 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2247,7 +2262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:B58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
